--- a/Csv/Model/Model.xlsx
+++ b/Csv/Model/Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#基类" sheetId="5" r:id="rId1"/>
@@ -19,18 +19,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模型名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GroupType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -39,10 +31,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家</t>
   </si>
   <si>
@@ -155,6 +143,18 @@
   </si>
   <si>
     <t>碰撞体高度</t>
+  </si>
+  <si>
+    <t>##string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##模型名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -550,85 +550,85 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -665,16 +665,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -699,7 +699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:G6"/>
+      <selection pane="bottomLeft" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -713,85 +713,85 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -805,16 +805,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -828,16 +828,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -860,7 +860,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G4"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -871,85 +871,85 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -986,85 +986,85 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>1</v>
